--- a/code2blog_merge_excel/src/main/resources/15th-August-2020.xlsx
+++ b/code2blog_merge_excel/src/main/resources/15th-August-2020.xlsx
@@ -19,19 +19,1295 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="26">
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Inn</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Runs</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>100s</t>
+  </si>
+  <si>
+    <t>50s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test
+2005–14
+</t>
+  </si>
+  <si>
+    <t>T20I</t>
+  </si>
+  <si>
+    <t>2006–19</t>
+  </si>
+  <si>
+    <t>ODI</t>
+  </si>
+  <si>
+    <t>183*</t>
+  </si>
+  <si>
+    <t>2004–19</t>
+  </si>
+  <si>
+    <t>IPL</t>
+  </si>
+  <si>
+    <t>84*</t>
+  </si>
+  <si>
+    <t>2008–19</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>2010–15</t>
+  </si>
+  <si>
+    <t>2006–18</t>
+  </si>
+  <si>
+    <t>116*</t>
+  </si>
+  <si>
+    <t>2005–18</t>
+  </si>
+  <si>
+    <t>100*</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="200">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color rgb="FF212121"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color rgb="FF878787"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,8 +1330,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="1" applyBorder="1" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="1" applyBorder="1" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="74" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="1" applyBorder="1" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="99" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="1" applyBorder="1" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="124" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="1" applyBorder="1" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="149" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="1" applyBorder="1" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="174" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="1" applyBorder="1" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="199" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="1" applyBorder="1" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -67,7 +1367,84 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>4876.0</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>8249.0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -79,7 +1456,100 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1617.0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1282.0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -91,7 +1561,114 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>10773.0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>12303.0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>87.6</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>73.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -103,7 +1680,100 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>4432.0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>3215.0</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -115,7 +1785,100 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>768.0</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>1445.0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -127,7 +1890,100 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>1605.0</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>1190.0</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -139,7 +1995,114 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>5615.0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>6005.0</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -151,7 +2114,100 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>5368.0</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>3915.0</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="J2" s="8" t="n">
+        <v>137.1</v>
+      </c>
+      <c r="K2" s="8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>